--- a/prototypes/styletransfer/huggingface/temperature.xlsx
+++ b/prototypes/styletransfer/huggingface/temperature.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francesco.pochetti\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francesco.pochetti\ml-prototypes\prototypes\styletransfer\huggingface\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temperature" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -178,16 +178,16 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,18 +472,18 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -507,11 +507,11 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,9 +530,9 @@
         <f>E4/SUM($E$4:$E$7)</f>
         <v>0.51981609786201555</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,9 +551,9 @@
         <f>E5/SUM($E$4:$E$7)</f>
         <v>0.23356842878379569</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -572,9 +572,9 @@
         <f>E6/SUM($E$4:$E$7)</f>
         <v>0.14166641319827883</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,22 +593,22 @@
         <f>E7/SUM($E$4:$E$7)</f>
         <v>0.10494906015590996</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>SUM(F4:F7)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -616,7 +616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -632,11 +632,11 @@
       <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,9 +655,9 @@
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.99966227860179058</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,9 +676,9 @@
         <f t="shared" ref="F13:F15" si="4">E13/SUM($E$12:$E$15)</f>
         <v>3.3534933499476964E-4</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,9 +697,9 @@
         <f t="shared" si="4"/>
         <v>2.2595660453733148E-6</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,22 +718,22 @@
         <f t="shared" si="4"/>
         <v>1.1249716918270519E-7</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>SUM(F12:F15)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -741,7 +741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -757,11 +757,11 @@
       <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,9 +780,9 @@
         <f>E20/SUM($E$20:$E$23)</f>
         <v>0.25231859531806755</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,9 +801,9 @@
         <f t="shared" ref="F21:F23" si="7">E21/SUM($E$20:$E$23)</f>
         <v>0.25030809926237996</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -822,9 +822,9 @@
         <f t="shared" si="7"/>
         <v>0.24905968240906867</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,20 +843,20 @@
         <f t="shared" si="7"/>
         <v>0.24831362301048385</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>SUM(F20:F23)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
